--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 4/04-06-the-offset-funtction.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 4/04-06-the-offset-funtction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1ED8235D-F893-4811-8308-E8C81442B501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C815CB30-45C5-4690-BA0E-36BC91C13CC6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77897737-6FE4-436A-A4D8-B2AD93C4CE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5AD510AD-6746-4413-9BD7-5225850CA7BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{5AD510AD-6746-4413-9BD7-5225850CA7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="OFFSET" sheetId="2" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Month</t>
   </si>
@@ -60,9 +82,6 @@
     <t>Mar</t>
   </si>
   <si>
-    <t>Apr</t>
-  </si>
-  <si>
     <t>May</t>
   </si>
   <si>
@@ -94,6 +113,18 @@
   </si>
   <si>
     <t>Sales (last 3 months)</t>
+  </si>
+  <si>
+    <t>start from cell 3A, go dow 3 rows, go right 1 column, 1 by 1 range == 1 cell</t>
+  </si>
+  <si>
+    <t>start from cell 3A, go dow 7 rows, go right 2 column, 6 by 1 range == 6 cell</t>
+  </si>
+  <si>
+    <t>start from cell 3e, go dow 4 rows, go left 1 column, 2 by 2 range == 4 cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -101,9 +132,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="mm/yyyy"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -147,7 +178,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +197,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -190,28 +233,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -227,6 +438,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1354E2CE-D4D9-481E-B6FB-6455C8EB0658}" name="Table1" displayName="Table1" ref="A3:B17" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="A3:B17" xr:uid="{1354E2CE-D4D9-481E-B6FB-6455C8EB0658}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B982B7B9-B469-42D5-979A-58A5E3850081}" name="Month" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2A2E2C9D-748E-48C5-87D5-C83832B7EED2}" name="Sales" dataDxfId="1" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56328A92-F24D-4529-97E8-77328576A1ED}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,14 +761,15 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="61.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -563,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -579,8 +802,19 @@
       <c r="E4" s="4">
         <v>376</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -596,8 +830,12 @@
       <c r="E5" s="4">
         <v>972</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f ca="1">OFFSET(A3,3,1,1,1)</f>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -613,11 +851,20 @@
       <c r="E6" s="4">
         <v>599</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="H6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" cm="1">
+        <f t="array" aca="1" ref="J6:K7" ca="1">OFFSET(E3,4,-1,2,2)</f>
+        <v>1053</v>
+      </c>
+      <c r="K6">
+        <f ca="1"/>
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>735</v>
       </c>
@@ -630,10 +877,22 @@
       <c r="E7" s="4">
         <v>1487</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7" cm="1">
+        <f t="array" aca="1" ref="H7:H12" ca="1">OFFSET(A3,7,2,6,1)</f>
+        <v>481</v>
+      </c>
+      <c r="J7">
+        <f ca="1"/>
+        <v>1878</v>
+      </c>
+      <c r="K7">
+        <f ca="1"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>468</v>
@@ -647,10 +906,14 @@
       <c r="E8" s="4">
         <v>776</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f ca="1"/>
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>353</v>
@@ -664,10 +927,14 @@
       <c r="E9" s="4">
         <v>1248</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f ca="1"/>
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>618</v>
@@ -681,10 +948,14 @@
       <c r="E10" s="4">
         <v>679</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f ca="1"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>1614</v>
@@ -698,10 +969,14 @@
       <c r="E11" s="4">
         <v>810</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f ca="1"/>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>1896</v>
@@ -715,10 +990,14 @@
       <c r="E12" s="4">
         <v>585</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f ca="1"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>450</v>
@@ -733,9 +1012,9 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>1148</v>
@@ -750,9 +1029,9 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>1002</v>
@@ -765,6 +1044,11 @@
       </c>
       <c r="E15" s="4">
         <v>542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -774,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500DE734-6554-4363-A736-27CA58FF356D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -791,133 +1075,152 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="10">
         <v>43831</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>200</v>
       </c>
-      <c r="E4" s="7">
-        <f ca="1">SUM(OFFSET(B3,COUNTA(B4:B17),0,-3,1))</f>
-        <v>3600</v>
+      <c r="E4" s="6">
+        <f ca="1">SUM(OFFSET(B3,COUNTA(B4:B25),0,-6,1))</f>
+        <v>10600</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <v>43862</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>300</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <v>43891</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>400</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="10">
         <v>43922</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>500</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="10">
         <v>43952</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>600</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="10">
         <v>43983</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>700</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="10">
         <v>44013</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>800</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="10">
         <v>44044</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>900</v>
       </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="10">
         <v>44075</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>1000</v>
       </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="10">
         <v>44105</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1100</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="10">
         <v>44136</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>1200</v>
       </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="10">
         <v>44166</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1300</v>
       </c>
       <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>44197</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>44228</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>